--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rolf/Documents/GitHub/Big-Data-Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594DBEEB-A76A-E140-9DF9-F9B1EB36E745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD16717-10A2-AC41-83D1-30283030A16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{B30405C7-719B-9F49-9E3D-7286888745CE}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="14">
-        <v>0.41499999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0.38</v>
       </c>
       <c r="G5" s="14">
-        <v>0.23</v>
+        <v>0.53</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="14">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="14">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rolf/Documents/GitHub/Big-Data-Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD16717-10A2-AC41-83D1-30283030A16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC0E7D-8268-8343-86B9-B0B6C973A8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{B30405C7-719B-9F49-9E3D-7286888745CE}"/>
   </bookViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rolf/Documents/GitHub/Big-Data-Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC0E7D-8268-8343-86B9-B0B6C973A8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DA501-2568-EF41-B76F-0D93B5ED1C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{B30405C7-719B-9F49-9E3D-7286888745CE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Accuracy on test</t>
+  </si>
+  <si>
+    <t>Not calculated</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -553,9 +556,7 @@
       <c r="G2" s="14">
         <v>0.47</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
+      <c r="H2" s="11"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -577,8 +578,8 @@
       <c r="G3" s="12">
         <v>0.22</v>
       </c>
-      <c r="H3" s="9">
-        <v>1</v>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -621,9 +622,7 @@
       <c r="G5" s="14">
         <v>0.53</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -645,8 +644,8 @@
       <c r="G6" s="12">
         <v>0.23</v>
       </c>
-      <c r="H6" s="9">
-        <v>1</v>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -689,9 +688,7 @@
       <c r="G8" s="14">
         <v>0.46</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -713,8 +710,8 @@
       <c r="G9" s="12">
         <v>0.24</v>
       </c>
-      <c r="H9" s="9">
-        <v>1</v>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
